--- a/data/trans_camb/P37A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37A-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>-10,49</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-7,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 15,48</t>
+          <t>-7,74; 24,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 19,6</t>
+          <t>-9,6; 22,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 12,67</t>
+          <t>-23,06; 18,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 11,82</t>
+          <t>-15,43; 17,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 10,37</t>
+          <t>-19,65; 14,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 12,39</t>
+          <t>-36,09; 7,77</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 15,52</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 15,33</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-25,09; 8,88</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>-13,38%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-8,68%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 19,81</t>
+          <t>-8,98; 34,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 25,91</t>
+          <t>-10,71; 31,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 17,09</t>
+          <t>-26,08; 25,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 16,0</t>
+          <t>-18,19; 24,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 13,19</t>
+          <t>-23,45; 19,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 15,78</t>
+          <t>-42,84; 9,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 21,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 20,89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-30,86; 10,73</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-6,53</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-5,98</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-6,92</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,79</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 7,0</t>
+          <t>-13,17; 6,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 4,23</t>
+          <t>-19,41; 4,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 2,64</t>
+          <t>-13,72; 4,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 2,95</t>
+          <t>-19,26; 2,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 3,14</t>
+          <t>-17,81; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 1,35</t>
+          <t>-17,71; 4,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 1,39</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 0,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 2,63</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>-4,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,06%</t>
+          <t>-4,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>-12,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,85%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>-9,34%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-9,2%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-6,37%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 9,15</t>
+          <t>-15,7; 8,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 5,52</t>
+          <t>-23,5; 5,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 3,82</t>
+          <t>-16,54; 6,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 4,4</t>
+          <t>-25,65; 4,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 4,33</t>
+          <t>-23,78; 4,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 1,84</t>
+          <t>-24,13; 6,38</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-17,46; 1,95</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-19,89; 1,0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-15,72; 3,69</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,05</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-11,43</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,15</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 6,69</t>
+          <t>-13,68; 10,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 9,23</t>
+          <t>-9,71; 14,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 4,06</t>
+          <t>-9,43; 14,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 1,5</t>
+          <t>-11,19; 7,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 2,28</t>
+          <t>-14,18; 5,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 2,33</t>
+          <t>-22,32; -1,45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 6,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; 5,74</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-12,48; 3,39</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>-6,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>-15,65%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,49%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,61%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,96%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 9,19</t>
+          <t>-16,89; 14,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 12,41</t>
+          <t>-11,95; 21,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 6,15</t>
+          <t>-11,79; 21,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 2,43</t>
+          <t>-14,35; 10,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 3,22</t>
+          <t>-18,39; 7,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 3,29</t>
+          <t>-29,01; -1,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-11,3; 8,89</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 8,34</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,11; 4,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 4,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 1,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 5,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 2,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 1,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-4,72</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-5,58</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-8,75</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 5,51</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 5,14</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,03; 5,63</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,48; 1,72</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-12,04; 1,33</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-16,25; -1,9</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 2,16</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 0,93</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 0,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,62%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-2,51%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,91%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-6,52%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-7,71%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-12,09%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,94%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-4,84%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-6,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 7,37</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-12,89; 6,76</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 7,42</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-15,34; 2,46</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-15,79; 1,99</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-21,82; -2,82</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 2,97</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; 1,25</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-13,21; 0,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
